--- a/tea-service/src/excelFiles/initPrefixes.xlsx
+++ b/tea-service/src/excelFiles/initPrefixes.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Prefix</t>
   </si>
   <si>
     <t xml:space="preserve">Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haha</t>
   </si>
   <si>
     <t xml:space="preserve">ab12</t>
@@ -150,10 +153,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -164,8 +167,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1234</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>140</v>
@@ -197,7 +200,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20</v>

--- a/tea-service/src/excelFiles/initPrefixes.xlsx
+++ b/tea-service/src/excelFiles/initPrefixes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t xml:space="preserve">Prefix</t>
   </si>
@@ -28,10 +28,25 @@
     <t xml:space="preserve">Counter</t>
   </si>
   <si>
+    <t xml:space="preserve">Hierarchy</t>
+  </si>
+  <si>
     <t xml:space="preserve">haha</t>
   </si>
   <si>
+    <t xml:space="preserve">aaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaaaa</t>
+  </si>
+  <si>
     <t xml:space="preserve">ab12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccccc</t>
   </si>
 </sst>
 </file>
@@ -120,7 +135,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,6 +145,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -150,13 +169,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -165,13 +184,19 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -181,6 +206,9 @@
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -189,6 +217,9 @@
       <c r="B4" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -197,13 +228,19 @@
       <c r="B5" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -213,11 +250,25 @@
       <c r="B7" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
